--- a/data/532/HKCSD/Hong Kong Dollar Interest Settlement Rates.xlsx
+++ b/data/532/HKCSD/Hong Kong Dollar Interest Settlement Rates.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,6 +4041,35 @@
       </c>
       <c r="G132" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
